--- a/manufacture/rev_1/aquila_main_rev_1_bom.xlsx
+++ b/manufacture/rev_1/aquila_main_rev_1_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af289540efb4fcf2/cam/CUSF/aquila-avionics/manufacture/rev_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC1048D4595D50825ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22DE0847-A368-4FB7-AF11-9F3F8381F407}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC1048D4595D50825ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDC8194-6CFA-4CE0-9AEC-B333C752BFFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="1">
-        <v>2320763</v>
+        <v>2627379</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
